--- a/table/permanova/count_permanova.xlsx
+++ b/table/permanova/count_permanova.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +405,7 @@
         <v>0.1398048654612165</v>
       </c>
       <c r="E2">
-        <v>5.95770552187382</v>
+        <v>5.725717688642833</v>
       </c>
       <c r="F2">
         <v>0.0001</v>
@@ -427,7 +427,7 @@
         <v>0.083527467663864</v>
       </c>
       <c r="E3">
-        <v>3.559475943039968</v>
+        <v>3.420873068421225</v>
       </c>
       <c r="F3">
         <v>0.0002</v>
@@ -449,10 +449,10 @@
         <v>0.04257044024703806</v>
       </c>
       <c r="E4">
-        <v>1.814115310591504</v>
+        <v>1.743475249818088</v>
       </c>
       <c r="F4">
-        <v>0.0357</v>
+        <v>0.0458</v>
       </c>
     </row>
     <row r="5">
@@ -471,10 +471,10 @@
         <v>0.03755472817852825</v>
       </c>
       <c r="E5">
-        <v>1.600373568570517</v>
+        <v>1.53805642396347</v>
       </c>
       <c r="F5">
-        <v>0.07240000000000001</v>
+        <v>0.08840000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         <v>0.01897707048303545</v>
       </c>
       <c r="E6">
-        <v>0.8086971596645403</v>
+        <v>0.7772072008000369</v>
       </c>
       <c r="F6">
-        <v>0.652</v>
+        <v>0.6904</v>
       </c>
     </row>
     <row r="7">
@@ -515,63 +515,41 @@
         <v>0.04272335232545303</v>
       </c>
       <c r="E7">
-        <v>1.820631572603764</v>
+        <v>1.749737774296756</v>
       </c>
       <c r="F7">
-        <v>0.0344</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Depth:DRM:Cruise</t>
+          <t>Residual</t>
         </is>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>0.4201520378601904</v>
+        <v>5.535380911444382</v>
       </c>
       <c r="D8">
-        <v>0.04818642042292673</v>
-      </c>
-      <c r="E8">
-        <v>2.053437139586845</v>
-      </c>
-      <c r="F8">
-        <v>0.0127</v>
+        <v>0.6348420756408645</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>5.115228873584193</v>
+        <v>8.719303782529678</v>
       </c>
       <c r="D9">
-        <v>0.5866556552179378</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>8.719303782529678</v>
-      </c>
-      <c r="D10">
         <v>1</v>
       </c>
     </row>

--- a/table/permanova/count_permanova.xlsx
+++ b/table/permanova/count_permanova.xlsx
@@ -436,7 +436,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cruise</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="B4">
@@ -480,7 +480,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Depth:Cruise</t>
+          <t>Depth:Month</t>
         </is>
       </c>
       <c r="B6">
@@ -502,7 +502,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DRM:Cruise</t>
+          <t>DRM:Month</t>
         </is>
       </c>
       <c r="B7">

--- a/table/permanova/count_permanova.xlsx
+++ b/table/permanova/count_permanova.xlsx
@@ -402,10 +402,10 @@
         <v>1.219001092232038</v>
       </c>
       <c r="D2">
-        <v>0.1398048654612165</v>
+        <v>0.1398048654612166</v>
       </c>
       <c r="E2">
-        <v>5.725717688642833</v>
+        <v>5.725717688642836</v>
       </c>
       <c r="F2">
         <v>0.0001</v>
@@ -421,13 +421,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.7283013647466547</v>
+        <v>0.7283013647466552</v>
       </c>
       <c r="D3">
-        <v>0.083527467663864</v>
+        <v>0.08352746766386407</v>
       </c>
       <c r="E3">
-        <v>3.420873068421225</v>
+        <v>3.420873068421229</v>
       </c>
       <c r="F3">
         <v>0.0002</v>
@@ -443,13 +443,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.3711846006699526</v>
+        <v>0.3711846006699531</v>
       </c>
       <c r="D4">
-        <v>0.04257044024703806</v>
+        <v>0.04257044024703812</v>
       </c>
       <c r="E4">
-        <v>1.743475249818088</v>
+        <v>1.74347524981809</v>
       </c>
       <c r="F4">
         <v>0.0458</v>
@@ -465,13 +465,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.3274510834589153</v>
+        <v>0.3274510834589148</v>
       </c>
       <c r="D5">
-        <v>0.03755472817852825</v>
+        <v>0.03755472817852821</v>
       </c>
       <c r="E5">
-        <v>1.53805642396347</v>
+        <v>1.538056423963468</v>
       </c>
       <c r="F5">
         <v>0.08840000000000001</v>
@@ -493,7 +493,7 @@
         <v>0.01897707048303545</v>
       </c>
       <c r="E6">
-        <v>0.7772072008000369</v>
+        <v>0.7772072008000371</v>
       </c>
       <c r="F6">
         <v>0.6904</v>
@@ -509,13 +509,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.3725178875336708</v>
+        <v>0.3725178875336703</v>
       </c>
       <c r="D7">
-        <v>0.04272335232545303</v>
+        <v>0.04272335232545299</v>
       </c>
       <c r="E7">
-        <v>1.749737774296756</v>
+        <v>1.749737774296754</v>
       </c>
       <c r="F7">
         <v>0.044</v>
@@ -531,10 +531,10 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>5.535380911444382</v>
+        <v>5.535380911444381</v>
       </c>
       <c r="D8">
-        <v>0.6348420756408645</v>
+        <v>0.6348420756408646</v>
       </c>
     </row>
     <row r="9">
@@ -547,7 +547,7 @@
         <v>32</v>
       </c>
       <c r="C9">
-        <v>8.719303782529678</v>
+        <v>8.719303782529677</v>
       </c>
       <c r="D9">
         <v>1</v>
